--- a/note/2variables.xlsx
+++ b/note/2variables.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
+    <sheet name="Predefined Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="Variable scope" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -109,12 +111,172 @@
   <si>
     <t>User Contributed Notes</t>
   </si>
+  <si>
+    <t>gán giá trị</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/reserved.variables.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$php_errormsg </t>
+  </si>
+  <si>
+    <t>is a variable containing the text of the last error message generated by PHP
+là biến lỗi cuối cùng được render ra bởi PHP</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/language.variables.superglobals.php</t>
+  </si>
+  <si>
+    <t>Superglobals</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$a = 1; /* global scope */ 
+function test()
+{ 
+    echo $a; /* reference to local scope variable */ 
+} 
+test();
+?&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">biến $a trong hàm test() ko hoạt động. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>điều này hơi khác một chút so với ngôn ngữ C trong đó các biến toàn cục trong C sẽ tự động có sẵn cho các hàm trừ khi được định nghĩa cụ thể bằng một định nghĩa cục bộ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?php
+$a = 1;   /* global scope */ 
+function test()
+{ 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> global $a;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    echo $a; /* reference to local scope variable */ 
+} 
+test();
+?&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>câu hỏi: TH1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In PHP global variables must be declared global inside a function if they are going to be used in that function 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>các biến toàn cục PHP phải được khai báo toàn cục bên trong một hàm nếu chúng sẽ được sử dụng trong hàm đó. Bằng cách khai báo $ a global trong hàm, tất cả các tham chiếu đến $a trong hàm sẽ tham chiếu đến phiên bản toàn cầu</t>
+    </r>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?php
+$a = 1;   /* global scope */ 
+function test()
+{ 
+    echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$GLOBALS['a']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+} 
+test();
+?&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tương tự như C1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=&gt; dùng cách này cho tiện</t>
+    </r>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +325,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -232,12 +403,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -250,6 +430,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +799,9 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -772,4 +964,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="92" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/note/2variables.xlsx
+++ b/note/2variables.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
     <sheet name="Predefined Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Variable scope" sheetId="3" r:id="rId3"/>
+    <sheet name="Variable variables" sheetId="4" r:id="rId4"/>
+    <sheet name="form" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -271,12 +273,171 @@
   <si>
     <t>static</t>
   </si>
+  <si>
+    <t xml:space="preserve">User Contributed Notes </t>
+  </si>
+  <si>
+    <t>nên xem lại vì chẳng hiểu chi</t>
+  </si>
+  <si>
+    <t>// hello world
+// hello world</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$a = 'hello';
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$$a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'world';
+echo "$a ${$a}";
+echo "$a $hello";
+//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do $a = 'hello' nên ${$a} = $hello</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable variables </t>
+  </si>
+  <si>
+    <t>$$a[1]</t>
+  </si>
+  <si>
+    <t>//có 2 cách giải quyết
+C1:        ${$a[1]}
+C2:        ${$a}[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class foo {
+    var $bar = 'I am bar.';
+    var $arr = array('I am A.', 'I am B.', 'I am C.');
+    var $r   = 'I am r.';
+}
+$foo = new foo();
+$bar = 'bar';
+$baz = array('foo', 'bar', 'baz', 'quux');
+echo $foo-&gt;$bar . "\n";
+echo $foo-&gt;{$baz[1]} . "\n";
+$start = 'b';
+$end   = 'ar';
+echo $foo-&gt;{$start . $end} . "\n";
+$arr = 'arr';
+echo $foo-&gt;{$arr[1]} . "\n";
+</t>
+  </si>
+  <si>
+    <t>I am bar.
+I am bar.
+I am bar.
+I am r.</t>
+  </si>
+  <si>
+    <t>tóm lại phân này chỉ giải quyết việc tên biến là một biến khác  
+$a = 'abc';
+$$a =&gt; $abc</t>
+  </si>
+  <si>
+    <t>Please note that variable variables cannot be used with PHP's Superglobal arrays within functions or class methods. The variable $this is also a special variable that cannot be referenced dynamically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">không hỗ trợ với supperglobal. </t>
+  </si>
+  <si>
+    <t>Accessing data from a simple POST HTML form</t>
+  </si>
+  <si>
+    <t>$_POST['username'];
+$_REQUEST['username'];</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>htmlspecialchars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(print_r($_POST, true))</t>
+    </r>
+  </si>
+  <si>
+    <t>setcookie()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cookies </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are part of the HTTP header, so the SetCookie function must be called before any output is sent to the browser</t>
+    </r>
+  </si>
+  <si>
+    <t>header()</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.header.php</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.setcookie.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +489,16 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -417,11 +588,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -431,14 +612,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -791,43 +969,43 @@
     </row>
     <row r="5" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -982,7 +1160,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1"/>
@@ -991,7 +1169,7 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1"/>
@@ -1000,7 +1178,7 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
@@ -1110,22 +1288,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="92" style="8" customWidth="1"/>
+    <col min="3" max="3" width="92" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
@@ -1136,10 +1314,10 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1147,10 +1325,10 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1158,91 +1336,405 @@
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="107.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>